--- a/biology/Botanique/Attalea_maripa/Attalea_maripa.xlsx
+++ b/biology/Botanique/Attalea_maripa/Attalea_maripa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maripa
 Attalea maripa est une espèce de plantes à fleurs de la familles des Arecaceae (les palmiers) d'origine sud-américaine. 
@@ -512,9 +524,11 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est connu en Guyane sous les noms de maripa (créole guyanais)[4], inajá ou anajá (portugais brésilien)[5], maripa, malipa (kali'na), kahikti, arawakagta (palikur), malipa (teko), malipa (wayana), inaya, malipa (wayãpi), maipa (aluku)[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est connu en Guyane sous les noms de maripa (créole guyanais), inajá ou anajá (portugais brésilien), maripa, malipa (kali'na), kahikti, arawakagta (palikur), malipa (teko), malipa (wayana), inaya, malipa (wayãpi), maipa (aluku). 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attalea maripa est répandu dans tout le nord-ouest de l'Amérique du Sud jusqu'à Trinité-et-Tobago. Il est commun partout en Guyane[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attalea maripa est répandu dans tout le nord-ouest de l'Amérique du Sud jusqu'à Trinité-et-Tobago. Il est commun partout en Guyane.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il produit des fruits jaunes comestibles ovoïdes oblongs avec une pulpe de couleur crème. Il grandit jusqu'à 35 mètres et peut avoir des feuilles ou frondes de 10 à 12 mètres de long avec une inflorescence interfoliaire.
 </t>
@@ -605,9 +623,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, cette espèce généraliste pousse sur tous types de sols et de drainage, et dans la plupart des habitats naturels (forêts anciennes, secondaires, friches, ripisylve...)[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, cette espèce généraliste pousse sur tous types de sols et de drainage, et dans la plupart des habitats naturels (forêts anciennes, secondaires, friches, ripisylve...).
 </t>
         </is>
       </c>
@@ -636,13 +656,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les huiles tirées de sa pulpe et des amandes sont comestibles. Pulpe et amandes sont consommées crues. Le bourgeon terminal est consommé comme cœur de palmier sous le nom de chou-maripa[5].
-L'huile de l'amande de Maripa est employée en frictions antirumatismales[4].
-La spathe de ce palmier (appelée kuudi en wayãpi) est employée dans l'artisanat et comme contenant pour préparer divers remèdes traditionnels[7]
-On récolte dans son stipe des « vers palmistes » (larves comestibles de Rhynchophorus palmarum). Ses palmes sont utilisées en vannerie (nattes, tendeurs de tambours, katouris, nasses pour la chasse et la pêche) et pour couvrir la toiture des carbets traditionnels. Ses graines servent à confectionner des bijoux, divers jouets, objets de décoration, etc.)[6].
-On extrait du sel alimentaire des cendres de palier Attalea maripa après calcination, solubilisation des cendres et déshydrataion du "jus" obtenu[8],[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les huiles tirées de sa pulpe et des amandes sont comestibles. Pulpe et amandes sont consommées crues. Le bourgeon terminal est consommé comme cœur de palmier sous le nom de chou-maripa.
+L'huile de l'amande de Maripa est employée en frictions antirumatismales.
+La spathe de ce palmier (appelée kuudi en wayãpi) est employée dans l'artisanat et comme contenant pour préparer divers remèdes traditionnels
+On récolte dans son stipe des « vers palmistes » (larves comestibles de Rhynchophorus palmarum). Ses palmes sont utilisées en vannerie (nattes, tendeurs de tambours, katouris, nasses pour la chasse et la pêche) et pour couvrir la toiture des carbets traditionnels. Ses graines servent à confectionner des bijoux, divers jouets, objets de décoration, etc.).
+On extrait du sel alimentaire des cendres de palier Attalea maripa après calcination, solubilisation des cendres et déshydrataion du "jus" obtenu,.
 </t>
         </is>
       </c>
@@ -671,11 +693,13 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1741, Barrère écrit sur cette plante ainsi[10] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1741, Barrère écrit sur cette plante ainsi :
 « PALMA dactilifera, caudice perdulci, eduli, Maripa. Le tronc de ce Palmier, appellé communément Chou-Maripa, eſt parmi les Créols un mets friands ; on le mange apprêté de différentes façons. »
-En 1775, le botaniste Aublet rapporte ceci[11] : 
+En 1775, le botaniste Aublet rapporte ceci : 
 « PALMA Maripa. Caraïb.
 Ce Palmier porte ſes fleurs mâles ſur un arbre, &amp; ſes fleurs femelles ſur un autre. L'on ſert auſſi ſon fruit ſur les tables. »
 [...]
